--- a/rawdata/TableHawaii.xlsx
+++ b/rawdata/TableHawaii.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Documents\geologia\punticaldi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418CE0ED-A2F0-4CF3-B9D9-FF1C332B9030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7DE75A-237C-4D8E-BCE5-D1568F001400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD9ED927-770F-4074-ACE8-AFC6CB6EA1C9}"/>
   </bookViews>
@@ -140,26 +140,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -476,13 +475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED71F86-2643-4511-942C-6EEED6A39F75}">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -491,22 +490,24 @@
     <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="2"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -514,49 +515,49 @@
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
-      <c r="M1" s="3"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="M1" s="8"/>
+      <c r="T1"/>
+      <c r="U1"/>
+    </row>
+    <row r="2" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>8639</v>
       </c>
       <c r="D3">
@@ -565,174 +566,174 @@
       <c r="E3">
         <v>77000</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>53</v>
-      </c>
-      <c r="J3" s="7">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5">
         <v>8639</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="6">
         <v>30787</v>
       </c>
       <c r="L3">
-        <v>4.0516825999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+        <v>4.0518096005949744E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>8977</v>
       </c>
       <c r="D4">
         <v>244657.6</v>
       </c>
       <c r="E4">
-        <v>321657.60000002402</v>
-      </c>
-      <c r="G4" s="10">
+        <v>321657.59999999998</v>
+      </c>
+      <c r="G4" s="7">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4">
-        <v>64</v>
-      </c>
-      <c r="J4" s="9">
+        <v>61</v>
+      </c>
+      <c r="J4" s="6">
         <v>31589</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>43317</v>
       </c>
       <c r="L4">
-        <v>0.214909251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.21353546371896856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>9615</v>
       </c>
       <c r="D5">
         <v>121000000</v>
       </c>
       <c r="E5">
-        <v>121321657.60000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>121321657.59999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>10063</v>
       </c>
       <c r="D6">
         <v>2415993</v>
       </c>
       <c r="E6">
-        <v>123737650.60000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>123737650.59999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>10645</v>
       </c>
       <c r="D7">
         <v>1467945</v>
       </c>
       <c r="E7">
-        <v>125205595.60000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>125205595.59999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>10802</v>
       </c>
       <c r="D8">
         <v>2752398</v>
       </c>
       <c r="E8">
-        <v>127957993.60000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>127957993.59999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>11299</v>
       </c>
       <c r="D9">
         <v>6483425</v>
       </c>
       <c r="E9">
-        <v>134441418.60000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>134441418.59999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>11693</v>
       </c>
       <c r="D10">
         <v>7370309</v>
       </c>
       <c r="E10">
-        <v>141811727.60000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>141811727.59999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>12406</v>
       </c>
       <c r="D11">
         <v>100000000</v>
       </c>
       <c r="E11">
-        <v>241811727.60000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>241811727.59999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>12700</v>
       </c>
       <c r="D12">
         <v>7263271</v>
       </c>
       <c r="E12">
-        <v>249074998.60000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>249074998.59999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>13151</v>
       </c>
       <c r="D13">
@@ -742,11 +743,11 @@
         <v>336074998.60000002</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>14841</v>
       </c>
       <c r="D14">
@@ -756,39 +757,39 @@
         <v>446074998.60000002</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>15471</v>
       </c>
       <c r="D15">
         <v>176000000</v>
       </c>
       <c r="E15">
-        <v>622074998.5999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>622074998.60000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>18049</v>
       </c>
       <c r="D16">
         <v>116000000</v>
       </c>
       <c r="E16">
-        <v>738074998.5999999</v>
+        <v>738074998.60000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>18437</v>
       </c>
       <c r="D17">
@@ -802,7 +803,7 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>19308</v>
       </c>
       <c r="D18">
@@ -900,7 +901,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>22479</v>
       </c>
       <c r="D25">
@@ -914,7 +915,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="9">
         <v>22550</v>
       </c>
       <c r="D26">
@@ -928,7 +929,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <v>22990</v>
       </c>
       <c r="D27">
@@ -942,7 +943,7 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>23247</v>
       </c>
       <c r="D28">
@@ -956,7 +957,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>23291</v>
       </c>
       <c r="D29">
@@ -970,7 +971,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>23817</v>
       </c>
       <c r="D30">
@@ -984,7 +985,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>24102</v>
       </c>
       <c r="D31">
@@ -998,7 +999,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>25032</v>
       </c>
       <c r="D32">
@@ -1012,7 +1013,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>25077</v>
       </c>
       <c r="D33">
@@ -1026,7 +1027,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>25134</v>
       </c>
       <c r="D34">
@@ -1040,7 +1041,7 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>25263</v>
       </c>
       <c r="D35">
@@ -1054,112 +1055,112 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>26222</v>
       </c>
       <c r="D36">
-        <v>185000000</v>
+        <v>203000000</v>
       </c>
       <c r="E36">
-        <v>1757184998.5999999</v>
+        <v>1775184998.5999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="7">
-        <v>26160</v>
+      <c r="B37" s="9">
+        <v>26788</v>
       </c>
       <c r="D37">
-        <v>10000000</v>
+        <v>125000000</v>
       </c>
       <c r="E37">
-        <v>1767184998.5999999</v>
+        <v>1900184998.5999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="7">
-        <v>26205</v>
+      <c r="B38" s="9">
+        <v>26790</v>
       </c>
       <c r="D38">
-        <v>8000000</v>
+        <v>1000000</v>
       </c>
       <c r="E38">
-        <v>1775184998.5999999</v>
+        <v>1901184998.5999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="7">
-        <v>26788</v>
+      <c r="B39" s="9">
+        <v>26978</v>
       </c>
       <c r="D39">
-        <v>125000000</v>
+        <v>2500000</v>
       </c>
       <c r="E39">
-        <v>1900184998.5999999</v>
+        <v>1903684998.5999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="7">
-        <v>26790</v>
+      <c r="B40" s="9">
+        <v>27008</v>
       </c>
       <c r="D40">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="E40">
-        <v>1901184998.5999999</v>
+        <v>1906684998.5999999</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="7">
-        <v>26978</v>
+      <c r="B41" s="9">
+        <v>27232</v>
       </c>
       <c r="D41">
-        <v>2500000</v>
+        <v>30000000</v>
       </c>
       <c r="E41">
-        <v>1903684998.5999999</v>
+        <v>1936684998.5999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="7">
-        <v>27008</v>
+      <c r="B42" s="9">
+        <v>27232</v>
       </c>
       <c r="D42">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="E42">
-        <v>1906684998.5999999</v>
+        <v>1946684998.5999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
-        <v>27232</v>
+      <c r="B43" s="9">
+        <v>27292</v>
       </c>
       <c r="D43">
-        <v>30000000</v>
+        <v>11000000</v>
       </c>
       <c r="E43">
-        <v>1936684998.5999999</v>
+        <v>1957684998.5999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,27 +1168,27 @@
         <v>42</v>
       </c>
       <c r="B44" s="9">
-        <v>27232</v>
+        <v>27395</v>
       </c>
       <c r="D44">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="E44">
-        <v>1946684998.5999999</v>
+        <v>1972684998.5999999</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="7">
-        <v>27292</v>
+      <c r="B45" s="9">
+        <v>27581</v>
       </c>
       <c r="D45">
-        <v>11000000</v>
+        <v>30000000</v>
       </c>
       <c r="E45">
-        <v>1957684998.5999999</v>
+        <v>2002684998.5999999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,13 +1196,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="9">
-        <v>27395</v>
+        <v>27728</v>
       </c>
       <c r="D46">
-        <v>15000000</v>
+        <v>200000</v>
       </c>
       <c r="E46">
-        <v>1972684998.5999999</v>
+        <v>2002884998.5999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1209,13 +1210,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="9">
-        <v>27581</v>
+        <v>28400</v>
       </c>
       <c r="D47">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E47">
-        <v>2002684998.5999999</v>
+        <v>2042884998.5999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,27 +1224,27 @@
         <v>46</v>
       </c>
       <c r="B48" s="9">
-        <v>27728</v>
+        <v>29176</v>
       </c>
       <c r="D48">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="E48">
-        <v>2002884998.5999999</v>
+        <v>2043284998.5999999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="7">
-        <v>28400</v>
+      <c r="B49" s="9">
+        <v>29291</v>
       </c>
       <c r="D49">
-        <v>40000000</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>2042884998.5999999</v>
+        <v>2043285001.5999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,13 +1252,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="9">
-        <v>29176</v>
+        <v>30072</v>
       </c>
       <c r="D50">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="E50">
-        <v>2043284998.5999999</v>
+        <v>2043785001.5999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,13 +1266,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="9">
-        <v>29291</v>
+        <v>30220</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>3000000</v>
       </c>
       <c r="E51">
-        <v>2043285001.5999999</v>
+        <v>2046785001.5999999</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,13 +1280,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="9">
-        <v>30072</v>
+        <v>30787</v>
       </c>
       <c r="D52">
-        <v>500000</v>
+        <v>190148031.49606299</v>
       </c>
       <c r="E52">
-        <v>2043785001.5999999</v>
+        <v>2236933033.0999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1293,13 +1294,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="9">
-        <v>30220</v>
+        <v>30787</v>
       </c>
       <c r="D53">
-        <v>3000000</v>
+        <v>220000000</v>
       </c>
       <c r="E53">
-        <v>2046785001.5999999</v>
+        <v>2456933033.0999999</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,13 +1308,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="9">
-        <v>30787</v>
+        <v>31589</v>
       </c>
       <c r="D54">
-        <v>190148031.49606299</v>
+        <v>325851968.50393701</v>
       </c>
       <c r="E54">
-        <v>2236933033.0960598</v>
+        <v>2782785001.5999999</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,13 +1322,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="9">
-        <v>30787</v>
+        <v>33641</v>
       </c>
       <c r="D55">
-        <v>220000000</v>
+        <v>673333333.33333337</v>
       </c>
       <c r="E55">
-        <v>2456933033.0960598</v>
+        <v>3456118334.9000001</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1335,157 +1336,125 @@
         <v>54</v>
       </c>
       <c r="B56" s="9">
-        <v>31589</v>
+        <v>35459</v>
       </c>
       <c r="D56">
-        <v>325851968.50393701</v>
+        <v>824000000</v>
       </c>
       <c r="E56">
-        <v>2782785001.5999999</v>
+        <v>4280118334.9000001</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="7">
-        <v>31589</v>
+      <c r="B57" s="9">
+        <v>35461</v>
       </c>
       <c r="D57">
-        <v>516000000</v>
+        <v>400000</v>
       </c>
       <c r="E57">
-        <v>3298785001.5999999</v>
+        <v>4280518334.9000001</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="7">
-        <v>33641</v>
+      <c r="B58" s="9">
+        <v>39254</v>
       </c>
       <c r="D58">
-        <v>673333333.33333337</v>
+        <v>2213334666.666667</v>
       </c>
       <c r="E58">
-        <v>3972118334.9333296</v>
+        <v>6493853001.8999996</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="7">
-        <v>35459</v>
+      <c r="B59" s="9">
+        <v>40609</v>
       </c>
       <c r="D59">
-        <v>824000000</v>
+        <v>840000000</v>
       </c>
       <c r="E59">
-        <v>4796118334.9333296</v>
+        <v>7333853001.8999996</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="7">
-        <v>35461</v>
+      <c r="B60" s="9">
+        <v>40611</v>
       </c>
       <c r="D60">
-        <v>400000</v>
+        <v>3600000</v>
       </c>
       <c r="E60">
-        <v>4796518334.9333296</v>
+        <v>7337453001.8999996</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="7">
-        <v>39254</v>
+      <c r="B61" s="9">
+        <v>40770</v>
       </c>
       <c r="D61">
-        <v>2213334666.666667</v>
+        <v>53333333.333333336</v>
       </c>
       <c r="E61">
-        <v>7009853001.6000004</v>
+        <v>7390786335.2299995</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="7">
-        <v>40609</v>
+      <c r="B62" s="9">
+        <v>43219</v>
       </c>
       <c r="D62">
-        <v>840000000</v>
+        <v>742666666.66666663</v>
       </c>
       <c r="E62">
-        <v>7849853001.6000004</v>
+        <v>8133453001.9300003</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="7">
-        <v>40611</v>
+      <c r="B63" s="9">
+        <v>43317</v>
       </c>
       <c r="D63">
-        <v>3600000</v>
+        <v>1180000000</v>
       </c>
       <c r="E63">
-        <v>7853453001.6000004</v>
+        <v>9313453001.9300003</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64" s="7">
-        <v>40770</v>
-      </c>
-      <c r="D64">
-        <v>53333333.333333336</v>
-      </c>
-      <c r="E64">
-        <v>7906786334.9333296</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65" s="7">
-        <v>43219</v>
-      </c>
-      <c r="D65">
-        <v>742666666.66666663</v>
-      </c>
-      <c r="E65">
-        <v>8649453001.6000004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66" s="7">
-        <v>43317</v>
-      </c>
-      <c r="D66">
-        <v>1180000000</v>
-      </c>
-      <c r="E66">
-        <v>9829453001.6000004</v>
-      </c>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/rawdata/TableHawaii.xlsx
+++ b/rawdata/TableHawaii.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Documents\geologia\punticaldi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7DE75A-237C-4D8E-BCE5-D1568F001400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E95575-6942-48F2-8E84-5D5A04DE37AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD9ED927-770F-4074-ACE8-AFC6CB6EA1C9}"/>
   </bookViews>
@@ -481,7 +481,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
         <v>30787</v>
       </c>
       <c r="L3">
-        <v>4.0518096005949744E-2</v>
+        <v>4.0516826173393999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
@@ -602,19 +602,19 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4">
         <v>61</v>
       </c>
-      <c r="J4" s="6">
-        <v>31589</v>
+      <c r="J4" s="9">
+        <v>30787</v>
       </c>
       <c r="K4" s="5">
         <v>43317</v>
       </c>
       <c r="L4">
-        <v>0.21353546371896856</v>
+        <v>0.19986783</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">

--- a/rawdata/TableHawaii.xlsx
+++ b/rawdata/TableHawaii.xlsx
@@ -501,11 +501,11 @@
       <c r="H5" s="10">
         <v>102.0</v>
       </c>
-      <c r="I5" s="6">
-        <v>112.0</v>
+      <c r="I5" s="10">
+        <v>113.0</v>
       </c>
       <c r="J5" s="7">
-        <v>35459.0</v>
+        <v>34020.0</v>
       </c>
       <c r="K5" s="7">
         <v>44905.0</v>
@@ -1996,13 +1996,13 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="7">
-        <v>35459.0</v>
+        <v>34020.0</v>
       </c>
       <c r="D104" s="6">
-        <v>7.642857142857144E8</v>
+        <v>1.1142857142857143E8</v>
       </c>
       <c r="E104" s="6">
-        <v>4.59097986014286E9</v>
+        <v>3.82669414585714E9</v>
       </c>
       <c r="M104" s="5"/>
     </row>
@@ -2011,13 +2011,13 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="7">
-        <v>35461.0</v>
+        <v>35459.0</v>
       </c>
       <c r="D105" s="6">
-        <v>428571.4285714286</v>
+        <v>7.642857142857144E8</v>
       </c>
       <c r="E105" s="6">
-        <v>4.59140843157143E9</v>
+        <v>4.59097986014286E9</v>
       </c>
       <c r="M105" s="5"/>
     </row>
@@ -2026,13 +2026,13 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="7">
-        <v>39254.0</v>
+        <v>35461.0</v>
       </c>
       <c r="D106" s="6">
-        <v>2.213334666666667E9</v>
+        <v>428571.4285714286</v>
       </c>
       <c r="E106" s="6">
-        <v>6.8047430982381E9</v>
+        <v>4.59140843157143E9</v>
       </c>
       <c r="M106" s="5"/>
     </row>
@@ -2041,13 +2041,13 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="7">
-        <v>40609.0</v>
+        <v>39254.0</v>
       </c>
       <c r="D107" s="6">
-        <v>8.4E8</v>
+        <v>2.213334666666667E9</v>
       </c>
       <c r="E107" s="6">
-        <v>7.6447430982381E9</v>
+        <v>6.8047430982381E9</v>
       </c>
       <c r="M107" s="5"/>
     </row>
@@ -2056,13 +2056,13 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="7">
-        <v>40611.0</v>
+        <v>40609.0</v>
       </c>
       <c r="D108" s="6">
-        <v>3600000.0</v>
+        <v>8.4E8</v>
       </c>
       <c r="E108" s="6">
-        <v>7.6483430982381E9</v>
+        <v>7.6447430982381E9</v>
       </c>
       <c r="M108" s="5"/>
     </row>
@@ -2071,13 +2071,13 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="7">
-        <v>40770.0</v>
+        <v>40611.0</v>
       </c>
       <c r="D109" s="6">
-        <v>5.3333333333333336E7</v>
+        <v>3600000.0</v>
       </c>
       <c r="E109" s="6">
-        <v>7.70167643157143E9</v>
+        <v>7.6483430982381E9</v>
       </c>
       <c r="M109" s="5"/>
     </row>
@@ -2086,13 +2086,13 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="7">
-        <v>43219.0</v>
+        <v>40770.0</v>
       </c>
       <c r="D110" s="6">
-        <v>7.291986666666666E8</v>
+        <v>5.3333333333333336E7</v>
       </c>
       <c r="E110" s="6">
-        <v>8.4308750982381E9</v>
+        <v>7.70167643157143E9</v>
       </c>
       <c r="M110" s="5"/>
     </row>
@@ -2101,13 +2101,13 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="7">
-        <v>43317.0</v>
+        <v>43219.0</v>
       </c>
       <c r="D111" s="6">
-        <v>1.18E9</v>
+        <v>7.291986666666666E8</v>
       </c>
       <c r="E111" s="6">
-        <v>9.61087509823809E9</v>
+        <v>8.4308750982381E9</v>
       </c>
       <c r="M111" s="5"/>
     </row>
@@ -2116,13 +2116,13 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="7">
-        <v>44339.0</v>
+        <v>43317.0</v>
       </c>
       <c r="D112" s="6">
-        <v>4.1E7</v>
+        <v>1.18E9</v>
       </c>
       <c r="E112" s="6">
-        <v>9.65187509823809E9</v>
+        <v>9.61087509823809E9</v>
       </c>
       <c r="M112" s="5"/>
     </row>
@@ -2131,13 +2131,13 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="7">
-        <v>44904.0</v>
+        <v>44339.0</v>
       </c>
       <c r="D113" s="6">
-        <v>1.11E8</v>
+        <v>4.1E7</v>
       </c>
       <c r="E113" s="6">
-        <v>9.76287509823809E9</v>
+        <v>9.65187509823809E9</v>
       </c>
       <c r="M113" s="5"/>
     </row>
@@ -2146,18 +2146,29 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="7">
+        <v>44904.0</v>
+      </c>
+      <c r="D114" s="6">
+        <v>1.11E8</v>
+      </c>
+      <c r="E114" s="6">
+        <v>9.76287509823809E9</v>
+      </c>
+      <c r="M114" s="5"/>
+    </row>
+    <row r="115" ht="13.5" customHeight="1">
+      <c r="A115" s="6">
+        <v>113.0</v>
+      </c>
+      <c r="B115" s="7">
         <v>44905.0</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D115" s="6">
         <v>1.51E8</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E115" s="6">
         <v>9.91387509823809E9</v>
       </c>
-      <c r="M114" s="5"/>
-    </row>
-    <row r="115" ht="13.5" customHeight="1">
-      <c r="B115" s="7"/>
       <c r="M115" s="5"/>
     </row>
     <row r="116" ht="13.5" customHeight="1">

--- a/rawdata/TableHawaii.xlsx
+++ b/rawdata/TableHawaii.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="h7sZ0AEpEAQF5JiJbKkBbvftIW8ETeGktFz5apNc+qo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ftPYWRtMas6hAglnp7jUTzQfyA2b/ELEm7OZyn5rUN8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>date (end)</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Q (km3/yr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -101,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -123,9 +120,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -348,7 +342,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
+    <col customWidth="1" min="1" max="1" width="10.29"/>
     <col customWidth="1" min="2" max="3" width="12.57"/>
     <col customWidth="1" min="4" max="4" width="8.0"/>
     <col customWidth="1" min="5" max="5" width="16.43"/>
@@ -462,23 +456,23 @@
       <c r="E4" s="6">
         <v>307000.0</v>
       </c>
-      <c r="G4" s="6">
-        <v>3.0</v>
+      <c r="G4" s="8">
+        <v>2.0</v>
       </c>
       <c r="H4" s="6">
         <v>67.0</v>
       </c>
       <c r="I4" s="6">
-        <v>101.0</v>
+        <v>115.0</v>
       </c>
       <c r="J4" s="7">
         <v>30793.0</v>
       </c>
       <c r="K4" s="7">
-        <v>34020.0</v>
+        <v>45185.0</v>
       </c>
       <c r="L4" s="6">
-        <v>0.13285</v>
+        <v>0.18559</v>
       </c>
       <c r="M4" s="5"/>
     </row>
@@ -495,24 +489,8 @@
       <c r="E5" s="6">
         <v>1.21307E8</v>
       </c>
-      <c r="G5" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>102.0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>113.0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>34020.0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>44905.0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.204257</v>
-      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
@@ -528,6 +506,8 @@
       <c r="E6" s="6">
         <v>1.23607E8</v>
       </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -543,9 +523,6 @@
       <c r="E7" s="6">
         <v>1.25007E8</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="5"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
@@ -621,9 +598,6 @@
       <c r="E12" s="6">
         <v>2.47707E8</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
@@ -1996,13 +1970,13 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="7">
-        <v>34020.0</v>
+        <v>35459.0</v>
       </c>
       <c r="D104" s="6">
-        <v>1.1142857142857143E8</v>
+        <v>7.642857142857144E8</v>
       </c>
       <c r="E104" s="6">
-        <v>3.82669414585714E9</v>
+        <v>4.59097986014286E9</v>
       </c>
       <c r="M104" s="5"/>
     </row>
@@ -2011,13 +1985,13 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="7">
-        <v>35459.0</v>
+        <v>35461.0</v>
       </c>
       <c r="D105" s="6">
-        <v>7.642857142857144E8</v>
+        <v>428571.4285714286</v>
       </c>
       <c r="E105" s="6">
-        <v>4.59097986014286E9</v>
+        <v>4.59140843157143E9</v>
       </c>
       <c r="M105" s="5"/>
     </row>
@@ -2026,13 +2000,13 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="7">
-        <v>35461.0</v>
+        <v>39254.0</v>
       </c>
       <c r="D106" s="6">
-        <v>428571.4285714286</v>
+        <v>2.213334666666667E9</v>
       </c>
       <c r="E106" s="6">
-        <v>4.59140843157143E9</v>
+        <v>6.8047430982381E9</v>
       </c>
       <c r="M106" s="5"/>
     </row>
@@ -2041,13 +2015,13 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="7">
-        <v>39254.0</v>
+        <v>40609.0</v>
       </c>
       <c r="D107" s="6">
-        <v>2.213334666666667E9</v>
+        <v>8.4E8</v>
       </c>
       <c r="E107" s="6">
-        <v>6.8047430982381E9</v>
+        <v>7.6447430982381E9</v>
       </c>
       <c r="M107" s="5"/>
     </row>
@@ -2056,13 +2030,13 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="7">
-        <v>40609.0</v>
+        <v>40611.0</v>
       </c>
       <c r="D108" s="6">
-        <v>8.4E8</v>
+        <v>3600000.0</v>
       </c>
       <c r="E108" s="6">
-        <v>7.6447430982381E9</v>
+        <v>7.6483430982381E9</v>
       </c>
       <c r="M108" s="5"/>
     </row>
@@ -2071,13 +2045,13 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="7">
-        <v>40611.0</v>
+        <v>40770.0</v>
       </c>
       <c r="D109" s="6">
-        <v>3600000.0</v>
+        <v>5.3333333333333336E7</v>
       </c>
       <c r="E109" s="6">
-        <v>7.6483430982381E9</v>
+        <v>7.70167643157143E9</v>
       </c>
       <c r="M109" s="5"/>
     </row>
@@ -2086,13 +2060,13 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="7">
-        <v>40770.0</v>
+        <v>43219.0</v>
       </c>
       <c r="D110" s="6">
-        <v>5.3333333333333336E7</v>
+        <v>7.291986666666666E8</v>
       </c>
       <c r="E110" s="6">
-        <v>7.70167643157143E9</v>
+        <v>8.4308750982381E9</v>
       </c>
       <c r="M110" s="5"/>
     </row>
@@ -2101,13 +2075,13 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="7">
-        <v>43219.0</v>
+        <v>43317.0</v>
       </c>
       <c r="D111" s="6">
-        <v>7.291986666666666E8</v>
+        <v>1.18E9</v>
       </c>
       <c r="E111" s="6">
-        <v>8.4308750982381E9</v>
+        <v>9.61087509823809E9</v>
       </c>
       <c r="M111" s="5"/>
     </row>
@@ -2116,13 +2090,13 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="7">
-        <v>43317.0</v>
+        <v>44339.0</v>
       </c>
       <c r="D112" s="6">
-        <v>1.18E9</v>
+        <v>4.1E7</v>
       </c>
       <c r="E112" s="6">
-        <v>9.61087509823809E9</v>
+        <v>9.65187509823809E9</v>
       </c>
       <c r="M112" s="5"/>
     </row>
@@ -2131,13 +2105,13 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="7">
-        <v>44339.0</v>
+        <v>44904.0</v>
       </c>
       <c r="D113" s="6">
-        <v>4.1E7</v>
+        <v>1.11E8</v>
       </c>
       <c r="E113" s="6">
-        <v>9.65187509823809E9</v>
+        <v>9.76287509823809E9</v>
       </c>
       <c r="M113" s="5"/>
     </row>
@@ -2146,13 +2120,13 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="7">
-        <v>44904.0</v>
+        <v>44905.0</v>
       </c>
       <c r="D114" s="6">
-        <v>1.11E8</v>
+        <v>1.51E8</v>
       </c>
       <c r="E114" s="6">
-        <v>9.76287509823809E9</v>
+        <v>9.91387509823809E9</v>
       </c>
       <c r="M114" s="5"/>
     </row>
@@ -2161,22 +2135,44 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="7">
-        <v>44905.0</v>
+        <v>44992.0</v>
       </c>
       <c r="D115" s="6">
-        <v>1.51E8</v>
+        <v>1.7E7</v>
       </c>
       <c r="E115" s="6">
-        <v>9.91387509823809E9</v>
+        <v>9.93087509823809E9</v>
       </c>
       <c r="M115" s="5"/>
     </row>
     <row r="116" ht="13.5" customHeight="1">
-      <c r="B116" s="7"/>
+      <c r="A116" s="6">
+        <v>114.0</v>
+      </c>
+      <c r="B116" s="7">
+        <v>45096.0</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1.6E7</v>
+      </c>
+      <c r="E116" s="6">
+        <v>9.94687509823809E9</v>
+      </c>
       <c r="M116" s="5"/>
     </row>
     <row r="117" ht="13.5" customHeight="1">
-      <c r="B117" s="7"/>
+      <c r="A117" s="6">
+        <v>115.0</v>
+      </c>
+      <c r="B117" s="7">
+        <v>45185.0</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1.9E7</v>
+      </c>
+      <c r="E117" s="6">
+        <v>9.96587509823809E9</v>
+      </c>
       <c r="M117" s="5"/>
     </row>
     <row r="118" ht="13.5" customHeight="1">

--- a/rawdata/TableHawaii.xlsx
+++ b/rawdata/TableHawaii.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ftPYWRtMas6hAglnp7jUTzQfyA2b/ELEm7OZyn5rUN8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="h7sZ0AEpEAQF5JiJbKkBbvftIW8ETeGktFz5apNc+qo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>date (end)</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Q (km3/yr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -120,6 +123,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -342,7 +348,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.29"/>
+    <col customWidth="1" min="1" max="1" width="8.0"/>
     <col customWidth="1" min="2" max="3" width="12.57"/>
     <col customWidth="1" min="4" max="4" width="8.0"/>
     <col customWidth="1" min="5" max="5" width="16.43"/>
@@ -456,23 +462,23 @@
       <c r="E4" s="6">
         <v>307000.0</v>
       </c>
-      <c r="G4" s="8">
-        <v>2.0</v>
+      <c r="G4" s="6">
+        <v>3.0</v>
       </c>
       <c r="H4" s="6">
         <v>67.0</v>
       </c>
       <c r="I4" s="6">
-        <v>115.0</v>
+        <v>101.0</v>
       </c>
       <c r="J4" s="7">
         <v>30793.0</v>
       </c>
       <c r="K4" s="7">
-        <v>45185.0</v>
+        <v>34020.0</v>
       </c>
       <c r="L4" s="6">
-        <v>0.18559</v>
+        <v>0.13285</v>
       </c>
       <c r="M4" s="5"/>
     </row>
@@ -489,8 +495,24 @@
       <c r="E5" s="6">
         <v>1.21307E8</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="G5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>102.0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>34020.0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>44905.0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.204257</v>
+      </c>
       <c r="M5" s="5"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
@@ -506,8 +528,6 @@
       <c r="E6" s="6">
         <v>1.23607E8</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -523,6 +543,9 @@
       <c r="E7" s="6">
         <v>1.25007E8</v>
       </c>
+      <c r="H7" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="M7" s="5"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
@@ -598,6 +621,9 @@
       <c r="E12" s="6">
         <v>2.47707E8</v>
       </c>
+      <c r="H12" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
@@ -1970,13 +1996,13 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="7">
-        <v>35459.0</v>
+        <v>34020.0</v>
       </c>
       <c r="D104" s="6">
-        <v>7.642857142857144E8</v>
+        <v>1.1142857142857143E8</v>
       </c>
       <c r="E104" s="6">
-        <v>4.59097986014286E9</v>
+        <v>3.82669414585714E9</v>
       </c>
       <c r="M104" s="5"/>
     </row>
@@ -1985,13 +2011,13 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="7">
-        <v>35461.0</v>
+        <v>35459.0</v>
       </c>
       <c r="D105" s="6">
-        <v>428571.4285714286</v>
+        <v>7.642857142857144E8</v>
       </c>
       <c r="E105" s="6">
-        <v>4.59140843157143E9</v>
+        <v>4.59097986014286E9</v>
       </c>
       <c r="M105" s="5"/>
     </row>
@@ -2000,13 +2026,13 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="7">
-        <v>39254.0</v>
+        <v>35461.0</v>
       </c>
       <c r="D106" s="6">
-        <v>2.213334666666667E9</v>
+        <v>428571.4285714286</v>
       </c>
       <c r="E106" s="6">
-        <v>6.8047430982381E9</v>
+        <v>4.59140843157143E9</v>
       </c>
       <c r="M106" s="5"/>
     </row>
@@ -2015,13 +2041,13 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="7">
-        <v>40609.0</v>
+        <v>39254.0</v>
       </c>
       <c r="D107" s="6">
-        <v>8.4E8</v>
+        <v>2.213334666666667E9</v>
       </c>
       <c r="E107" s="6">
-        <v>7.6447430982381E9</v>
+        <v>6.8047430982381E9</v>
       </c>
       <c r="M107" s="5"/>
     </row>
@@ -2030,13 +2056,13 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="7">
-        <v>40611.0</v>
+        <v>40609.0</v>
       </c>
       <c r="D108" s="6">
-        <v>3600000.0</v>
+        <v>8.4E8</v>
       </c>
       <c r="E108" s="6">
-        <v>7.6483430982381E9</v>
+        <v>7.6447430982381E9</v>
       </c>
       <c r="M108" s="5"/>
     </row>
@@ -2045,13 +2071,13 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="7">
-        <v>40770.0</v>
+        <v>40611.0</v>
       </c>
       <c r="D109" s="6">
-        <v>5.3333333333333336E7</v>
+        <v>3600000.0</v>
       </c>
       <c r="E109" s="6">
-        <v>7.70167643157143E9</v>
+        <v>7.6483430982381E9</v>
       </c>
       <c r="M109" s="5"/>
     </row>
@@ -2060,13 +2086,13 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="7">
-        <v>43219.0</v>
+        <v>40770.0</v>
       </c>
       <c r="D110" s="6">
-        <v>7.291986666666666E8</v>
+        <v>5.3333333333333336E7</v>
       </c>
       <c r="E110" s="6">
-        <v>8.4308750982381E9</v>
+        <v>7.70167643157143E9</v>
       </c>
       <c r="M110" s="5"/>
     </row>
@@ -2075,13 +2101,13 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="7">
-        <v>43317.0</v>
+        <v>43219.0</v>
       </c>
       <c r="D111" s="6">
-        <v>1.18E9</v>
+        <v>7.291986666666666E8</v>
       </c>
       <c r="E111" s="6">
-        <v>9.61087509823809E9</v>
+        <v>8.4308750982381E9</v>
       </c>
       <c r="M111" s="5"/>
     </row>
@@ -2090,13 +2116,13 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="7">
-        <v>44339.0</v>
+        <v>43317.0</v>
       </c>
       <c r="D112" s="6">
-        <v>4.1E7</v>
+        <v>1.18E9</v>
       </c>
       <c r="E112" s="6">
-        <v>9.65187509823809E9</v>
+        <v>9.61087509823809E9</v>
       </c>
       <c r="M112" s="5"/>
     </row>
@@ -2105,13 +2131,13 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="7">
-        <v>44904.0</v>
+        <v>44339.0</v>
       </c>
       <c r="D113" s="6">
-        <v>1.11E8</v>
+        <v>4.1E7</v>
       </c>
       <c r="E113" s="6">
-        <v>9.76287509823809E9</v>
+        <v>9.65187509823809E9</v>
       </c>
       <c r="M113" s="5"/>
     </row>
@@ -2120,13 +2146,13 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="7">
-        <v>44905.0</v>
+        <v>44904.0</v>
       </c>
       <c r="D114" s="6">
-        <v>1.51E8</v>
+        <v>1.11E8</v>
       </c>
       <c r="E114" s="6">
-        <v>9.91387509823809E9</v>
+        <v>9.76287509823809E9</v>
       </c>
       <c r="M114" s="5"/>
     </row>
@@ -2135,44 +2161,22 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="7">
-        <v>44992.0</v>
+        <v>44905.0</v>
       </c>
       <c r="D115" s="6">
-        <v>1.7E7</v>
+        <v>1.51E8</v>
       </c>
       <c r="E115" s="6">
-        <v>9.93087509823809E9</v>
+        <v>9.91387509823809E9</v>
       </c>
       <c r="M115" s="5"/>
     </row>
     <row r="116" ht="13.5" customHeight="1">
-      <c r="A116" s="6">
-        <v>114.0</v>
-      </c>
-      <c r="B116" s="7">
-        <v>45096.0</v>
-      </c>
-      <c r="D116" s="6">
-        <v>1.6E7</v>
-      </c>
-      <c r="E116" s="6">
-        <v>9.94687509823809E9</v>
-      </c>
+      <c r="B116" s="7"/>
       <c r="M116" s="5"/>
     </row>
     <row r="117" ht="13.5" customHeight="1">
-      <c r="A117" s="6">
-        <v>115.0</v>
-      </c>
-      <c r="B117" s="7">
-        <v>45185.0</v>
-      </c>
-      <c r="D117" s="6">
-        <v>1.9E7</v>
-      </c>
-      <c r="E117" s="6">
-        <v>9.96587509823809E9</v>
-      </c>
+      <c r="B117" s="7"/>
       <c r="M117" s="5"/>
     </row>
     <row r="118" ht="13.5" customHeight="1">
